--- a/spreadsheets/Veigar.xlsx
+++ b/spreadsheets/Veigar.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a\Desktop\champsgg\completed\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49A17CD9-59EB-45A8-B45E-1449EC8D09B6}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE95A9AE-6A7F-4CF9-BD7F-3FD1796CF427}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{B545EDFA-6363-4C2A-9C9C-217A6E7A6E38}"/>
+    <workbookView xWindow="31335" yWindow="2535" windowWidth="21525" windowHeight="11820" xr2:uid="{B545EDFA-6363-4C2A-9C9C-217A6E7A6E38}"/>
   </bookViews>
   <sheets>
     <sheet name="metadata" sheetId="1" r:id="rId1"/>
@@ -358,9 +358,6 @@
     <t>https://i.imgur.com/RwNr7Jh.png</t>
   </si>
   <si>
-    <t>Ex CLG founding member &amp; mid laner</t>
-  </si>
-  <si>
     <t>She cant do much early due to mana limitations. But once she get tear u need to be careful to not get chased down. Can look for poke/kill pressure/gank setup. Just beware of getting chased down. Control waves.</t>
   </si>
   <si>
@@ -377,6 +374,9 @@
   </si>
   <si>
     <t xml:space="preserve">Fairly free, just beware early cheesy all ins. Don’t let him jump on you to trade you. Get free trades in and shove/roam/counter roam/tp for his roams etc. </t>
+  </si>
+  <si>
+    <t>Ex CLG founding member &amp; mid laner.</t>
   </si>
 </sst>
 </file>
@@ -861,8 +861,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1FF1A3E-B1DC-4DEF-A1FF-05C516225EE7}">
   <dimension ref="A1:O14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -974,7 +974,7 @@
         <v>15</v>
       </c>
       <c r="B10" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="C10" s="1"/>
     </row>
@@ -1020,7 +1020,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92A2A11A-8C34-4DB0-87EC-6C11DACD08FD}">
   <dimension ref="A1:H46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+    <sheetView topLeftCell="A28" workbookViewId="0">
       <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
@@ -1133,7 +1133,7 @@
         <v>6</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H9" s="1"/>
     </row>
@@ -1224,7 +1224,7 @@
         <v>8</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -1312,7 +1312,7 @@
         <v>5</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -1323,7 +1323,7 @@
         <v>5</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -1378,7 +1378,7 @@
         <v>7.5</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -1411,7 +1411,7 @@
         <v>6</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1433,7 +1433,7 @@
         <v>5</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
